--- a/slices_lface_rface.xlsx
+++ b/slices_lface_rface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8FD27-8779-F94F-9C15-C97DDC6A2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89817564-CD71-944F-82ED-46383D9A2711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2440" windowWidth="50360" windowHeight="22740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="500" windowWidth="50360" windowHeight="22740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -296,28 +296,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -335,6 +335,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892E7BFD-AB1A-AE24-2A1D-D97E33E8A9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27228800" y="10922000"/>
+          <a:ext cx="3416300" cy="4127500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> has:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>negative theta</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>negative alpha</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>negative c and tan(phii)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>If this works, you will need to flip kw and reinforcement too.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AI73" sqref="AI73"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="AI56" sqref="AI56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,7 +981,7 @@
         <v>35.405602232838717</v>
       </c>
       <c r="AF4" s="4">
-        <f>W4*(B4*SIN(L4)-Z4*COS(L4))</f>
+        <f t="shared" ref="AF4:AF24" si="0">W4*(B4*SIN(L4)-Z4*COS(L4))</f>
         <v>544405.91263173684</v>
       </c>
       <c r="AG4" s="4">
@@ -896,7 +1006,7 @@
         <v>-42.316761701292158</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F24" si="0">RADIANS(E5)</f>
+        <f t="shared" ref="F5:F24" si="1">RADIANS(E5)</f>
         <v>-0.73856682046938538</v>
       </c>
       <c r="G5" s="4">
@@ -915,7 +1025,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L24" si="1">RADIANS(K5)</f>
+        <f t="shared" ref="L5:L24" si="2">RADIANS(K5)</f>
         <v>0.15525615398377154</v>
       </c>
       <c r="M5" s="4">
@@ -952,11 +1062,11 @@
         <v>-31418.82957509458</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" ref="X5:X24" si="2">1/(COS(F5-L5)+SIN(F5-L5)*TAN(RADIANS(R5))/$K$1)</f>
+        <f t="shared" ref="X5:X24" si="3">1/(COS(F5-L5)+SIN(F5-L5)*TAN(RADIANS(R5))/$K$1)</f>
         <v>2.373142190457822</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5:Y24" si="3">(-AB5*SIN(F5)-(Q5/$K$1)*G5+(AB5*COS(F5)+O5*G5)*TAN(RADIANS(R5))/$K$1)*X5</f>
+        <f t="shared" ref="Y5:Y23" si="4">(-AB5*SIN(F5)-(Q5/$K$1)*G5+(AB5*COS(F5)+O5*G5)*TAN(RADIANS(R5))/$K$1)*X5</f>
         <v>-31418.829575098152</v>
       </c>
       <c r="Z5" s="4">
@@ -978,11 +1088,11 @@
         <v>30.95362545115232</v>
       </c>
       <c r="AF5" s="4">
-        <f>W5*(B5*SIN(L5)-Z5*COS(L5))</f>
+        <f t="shared" si="0"/>
         <v>431434.3733718826</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" ref="AG5:AG24" si="4">Y5*(B5*SIN(L5)-Z5*COS(L5))</f>
+        <f t="shared" ref="AG5:AG24" si="5">Y5*(B5*SIN(L5)-Z5*COS(L5))</f>
         <v>431434.37337193167</v>
       </c>
     </row>
@@ -1003,7 +1113,7 @@
         <v>-36.067189115316197</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.62949120200172837</v>
       </c>
       <c r="G6" s="4">
@@ -1022,7 +1132,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M6" s="4">
@@ -1059,11 +1169,11 @@
         <v>-32979.612006000832</v>
       </c>
       <c r="X6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9169186841648613</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-32979.612006003852</v>
       </c>
       <c r="Z6" s="4">
@@ -1085,11 +1195,11 @@
         <v>27.581564944761411</v>
       </c>
       <c r="AF6" s="4">
-        <f>W6*(B6*SIN(L6)-Z6*COS(L6))</f>
+        <f t="shared" si="0"/>
         <v>185302.62657477544</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185302.6265747924</v>
       </c>
     </row>
@@ -1110,7 +1220,7 @@
         <v>-30.280799171141162</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52849964567158314</v>
       </c>
       <c r="G7" s="4">
@@ -1129,7 +1239,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M7" s="4">
@@ -1166,11 +1276,11 @@
         <v>-31670.945126899631</v>
       </c>
       <c r="X7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6419741026341035</v>
       </c>
       <c r="Y7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-31670.945126902243</v>
       </c>
       <c r="Z7" s="4">
@@ -1192,11 +1302,11 @@
         <v>25.02236198832664</v>
       </c>
       <c r="AF7" s="4">
-        <f>W7*(B7*SIN(L7)-Z7*COS(L7))</f>
+        <f t="shared" si="0"/>
         <v>-36268.848300477955</v>
       </c>
       <c r="AG7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-36268.848300480953</v>
       </c>
     </row>
@@ -1217,7 +1327,7 @@
         <v>-24.818360156472291</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.43316209967621655</v>
       </c>
       <c r="G8" s="4">
@@ -1236,7 +1346,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M8" s="4">
@@ -1273,11 +1383,11 @@
         <v>-28895.43671520862</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4581411751535542</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-28895.436715210923</v>
       </c>
       <c r="Z8" s="4">
@@ -1299,11 +1409,11 @@
         <v>23.133822729063031</v>
       </c>
       <c r="AF8" s="4">
-        <f>W8*(B8*SIN(L8)-Z8*COS(L8))</f>
+        <f t="shared" si="0"/>
         <v>-196679.14524594354</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-196679.14524595923</v>
       </c>
     </row>
@@ -1324,7 +1434,7 @@
         <v>-19.587598189663659</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.34186808096731158</v>
       </c>
       <c r="G9" s="4">
@@ -1343,7 +1453,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M9" s="4">
@@ -1380,11 +1490,11 @@
         <v>-25302.58192169313</v>
       </c>
       <c r="X9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.327139287109639</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-25302.581921695171</v>
       </c>
       <c r="Z9" s="4">
@@ -1406,11 +1516,11 @@
         <v>21.827266257646102</v>
       </c>
       <c r="AF9" s="4">
-        <f>W9*(B9*SIN(L9)-Z9*COS(L9))</f>
+        <f t="shared" si="0"/>
         <v>-291495.35924110422</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-291495.35924112774</v>
       </c>
     </row>
@@ -1431,7 +1541,7 @@
         <v>-14.103051563921619</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.2461446843689678</v>
       </c>
       <c r="G10" s="4">
@@ -1450,7 +1560,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M10" s="4">
@@ -1487,11 +1597,11 @@
         <v>-26471.291534419721</v>
       </c>
       <c r="X10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2228950984582274</v>
       </c>
       <c r="Y10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-26471.291534422009</v>
       </c>
       <c r="Z10" s="4">
@@ -1513,11 +1623,11 @@
         <v>20.77653133585569</v>
       </c>
       <c r="AF10" s="4">
-        <f>W10*(B10*SIN(L10)-Z10*COS(L10))</f>
+        <f t="shared" si="0"/>
         <v>-414965.90414191934</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-414965.90414195519</v>
       </c>
     </row>
@@ -1538,7 +1648,7 @@
         <v>-8.3372791889056899</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.14551297250440659</v>
       </c>
       <c r="G11" s="4">
@@ -1557,7 +1667,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M11" s="4">
@@ -1594,11 +1704,11 @@
         <v>-22839.970672891759</v>
       </c>
       <c r="X11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1400251377607835</v>
       </c>
       <c r="Y11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22839.970672894058</v>
       </c>
       <c r="Z11" s="4">
@@ -1620,11 +1730,11 @@
         <v>20.218488001640221</v>
       </c>
       <c r="AF11" s="4">
-        <f>W11*(B11*SIN(L11)-Z11*COS(L11))</f>
+        <f t="shared" si="0"/>
         <v>-437054.4140840937</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-437054.41408413771</v>
       </c>
     </row>
@@ -1645,7 +1755,7 @@
         <v>-2.6556552129635551</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.6349927263965238E-2</v>
       </c>
       <c r="G12" s="4">
@@ -1664,7 +1774,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M12" s="4">
@@ -1701,11 +1811,11 @@
         <v>-17548.000948388981</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0786688155401967</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-17548.000948391389</v>
       </c>
       <c r="Z12" s="4">
@@ -1727,11 +1837,11 @@
         <v>20.236968100375499</v>
       </c>
       <c r="AF12" s="4">
-        <f>W12*(B12*SIN(L12)-Z12*COS(L12))</f>
+        <f t="shared" si="0"/>
         <v>-379023.46412895533</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-379023.46412900736</v>
       </c>
     </row>
@@ -1752,7 +1862,7 @@
         <v>2.5313870442577771</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.418103856462563E-2</v>
       </c>
       <c r="G13" s="4">
@@ -1771,7 +1881,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M13" s="4">
@@ -1808,11 +1918,11 @@
         <v>-9273.0709800247114</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0366161813299686</v>
       </c>
       <c r="Y13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9273.0709800267941</v>
       </c>
       <c r="Z13" s="4">
@@ -1834,11 +1944,11 @@
         <v>20.75298934726553</v>
       </c>
       <c r="AF13" s="4">
-        <f>W13*(B13*SIN(L13)-Z13*COS(L13))</f>
+        <f t="shared" si="0"/>
         <v>-213358.20457328405</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-213358.20457333198</v>
       </c>
     </row>
@@ -1859,7 +1969,7 @@
         <v>7.267387142297566</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12683983365019419</v>
       </c>
       <c r="G14" s="4">
@@ -1878,7 +1988,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M14" s="4">
@@ -1915,11 +2025,11 @@
         <v>-3582.902287018263</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0079407017825104</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3582.9022870204544</v>
       </c>
       <c r="Z14" s="4">
@@ -1941,11 +2051,11 @@
         <v>21.750024847377549</v>
       </c>
       <c r="AF14" s="4">
-        <f>W14*(B14*SIN(L14)-Z14*COS(L14))</f>
+        <f t="shared" si="0"/>
         <v>-84500.040818515627</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-84500.0408185673</v>
       </c>
     </row>
@@ -1966,7 +2076,7 @@
         <v>12.05399136403763</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21038183730941906</v>
       </c>
       <c r="G15" s="4">
@@ -1985,7 +2095,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M15" s="4">
@@ -2022,11 +2132,11 @@
         <v>3004.420217868138</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98719076459475452</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3004.4202178658447</v>
       </c>
       <c r="Z15" s="4">
@@ -2048,11 +2158,11 @@
         <v>23.28127742148499</v>
       </c>
       <c r="AF15" s="4">
-        <f>W15*(B15*SIN(L15)-Z15*COS(L15))</f>
+        <f t="shared" si="0"/>
         <v>70521.889922367613</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70521.889922313785</v>
       </c>
     </row>
@@ -2073,7 +2183,7 @@
         <v>17.207373528260501</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30032532368865927</v>
       </c>
       <c r="G16" s="4">
@@ -2092,7 +2202,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M16" s="4">
@@ -2129,11 +2239,11 @@
         <v>11907.22927254782</v>
       </c>
       <c r="X16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97321205263230448</v>
       </c>
       <c r="Y16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11907.229272545306</v>
       </c>
       <c r="Z16" s="4">
@@ -2155,11 +2265,11 @@
         <v>25.692172479091489</v>
       </c>
       <c r="AF16" s="4">
-        <f>W16*(B16*SIN(L16)-Z16*COS(L16))</f>
+        <f t="shared" si="0"/>
         <v>268796.24985457823</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268796.24985452148</v>
       </c>
     </row>
@@ -2180,7 +2290,7 @@
         <v>22.798593340724128</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39791051861888943</v>
       </c>
       <c r="G17" s="4">
@@ -2199,7 +2309,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M17" s="4">
@@ -2236,11 +2346,11 @@
         <v>20462.322725746639</v>
       </c>
       <c r="X17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96719873514679577</v>
       </c>
       <c r="Y17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20462.322725744321</v>
       </c>
       <c r="Z17" s="4">
@@ -2262,11 +2372,11 @@
         <v>28.875152709666889</v>
       </c>
       <c r="AF17" s="4">
-        <f>W17*(B17*SIN(L17)-Z17*COS(L17))</f>
+        <f t="shared" si="0"/>
         <v>423467.27385890391</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>423467.27385885594</v>
       </c>
     </row>
@@ -2287,7 +2397,7 @@
         <v>28.63022324310317</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49969166117315922</v>
       </c>
       <c r="G18" s="4">
@@ -2306,7 +2416,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M18" s="4">
@@ -2343,11 +2453,11 @@
         <v>28185.443805337549</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9707839877130241</v>
       </c>
       <c r="Y18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28185.44380533537</v>
       </c>
       <c r="Z18" s="4">
@@ -2369,11 +2479,11 @@
         <v>32.893087665872677</v>
       </c>
       <c r="AF18" s="4">
-        <f>W18*(B18*SIN(L18)-Z18*COS(L18))</f>
+        <f t="shared" si="0"/>
         <v>500326.48186866095</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500326.48186862224</v>
       </c>
     </row>
@@ -2394,7 +2504,7 @@
         <v>34.807209799104918</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60750041442681479</v>
       </c>
       <c r="G19" s="4">
@@ -2413,7 +2523,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M19" s="4">
@@ -2450,11 +2560,11 @@
         <v>34920.677729165487</v>
       </c>
       <c r="X19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98577950278948712</v>
       </c>
       <c r="Y19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34920.677729163479</v>
       </c>
       <c r="Z19" s="4">
@@ -2476,11 +2586,11 @@
         <v>37.879280221218337</v>
       </c>
       <c r="AF19" s="4">
-        <f>W19*(B19*SIN(L19)-Z19*COS(L19))</f>
+        <f t="shared" si="0"/>
         <v>473925.32621160476</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>473925.32621157751</v>
       </c>
     </row>
@@ -2501,7 +2611,7 @@
         <v>41.489199988969958</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7241231438259208</v>
       </c>
       <c r="G20" s="4">
@@ -2520,7 +2630,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M20" s="4">
@@ -2557,11 +2667,11 @@
         <v>40158.865608300199</v>
       </c>
       <c r="X20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0160320648896868</v>
       </c>
       <c r="Y20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40158.865608298307</v>
       </c>
       <c r="Z20" s="4">
@@ -2583,11 +2693,11 @@
         <v>44.054987101895698</v>
       </c>
       <c r="AF20" s="4">
-        <f>W20*(B20*SIN(L20)-Z20*COS(L20))</f>
+        <f t="shared" si="0"/>
         <v>316283.18197540671</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316283.18197539181</v>
       </c>
     </row>
@@ -2608,7 +2718,7 @@
         <v>48.950353980985518</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85434484698491109</v>
       </c>
       <c r="G21" s="4">
@@ -2627,7 +2737,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M21" s="4">
@@ -2664,11 +2774,11 @@
         <v>42888.231943938386</v>
       </c>
       <c r="X21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0698404961922345</v>
       </c>
       <c r="Y21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42888.231943936611</v>
       </c>
       <c r="Z21" s="4">
@@ -2690,11 +2800,11 @@
         <v>51.753861684685553</v>
       </c>
       <c r="AF21" s="4">
-        <f>W21*(B21*SIN(L21)-Z21*COS(L21))</f>
+        <f t="shared" si="0"/>
         <v>7184.2228218205164</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7184.222821820219</v>
       </c>
     </row>
@@ -2715,7 +2825,7 @@
         <v>60.048385306039087</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0480420340965648</v>
       </c>
       <c r="G22" s="4">
@@ -2734,7 +2844,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M22" s="4">
@@ -2771,11 +2881,11 @@
         <v>61020.96489264824</v>
       </c>
       <c r="X22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1382926330523013</v>
       </c>
       <c r="Y22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61020.964892646196</v>
       </c>
       <c r="Z22" s="4">
@@ -2797,11 +2907,11 @@
         <v>69.676772599308009</v>
       </c>
       <c r="AF22" s="4">
-        <f>W22*(B22*SIN(L22)-Z22*COS(L22))</f>
+        <f t="shared" si="0"/>
         <v>-832991.62666661071</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-832991.62666658289</v>
       </c>
     </row>
@@ -2822,7 +2932,7 @@
         <v>72.764970977396402</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2699883236736835</v>
       </c>
       <c r="G23" s="4">
@@ -2841,7 +2951,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M23" s="4">
@@ -2878,11 +2988,11 @@
         <v>10830.682955218899</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.455854622958779</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10830.682955218255</v>
       </c>
       <c r="Z23" s="4">
@@ -2904,11 +3014,11 @@
         <v>81.131551029590355</v>
       </c>
       <c r="AF23" s="4">
-        <f>W23*(B23*SIN(L23)-Z23*COS(L23))</f>
+        <f t="shared" si="0"/>
         <v>-350194.85183574364</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-350194.85183572286</v>
       </c>
     </row>
@@ -2929,7 +3039,7 @@
         <v>79.168840725753512</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3817569356513759</v>
       </c>
       <c r="G24" s="4">
@@ -2948,7 +3058,7 @@
         <v>8.8955223667033323</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15525615398377154</v>
       </c>
       <c r="M24" s="4">
@@ -2985,7 +3095,7 @@
         <v>-349.21667287072029</v>
       </c>
       <c r="X24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6780077029328766</v>
       </c>
       <c r="Y24" s="12">
@@ -3011,11 +3121,11 @@
         <v>83.988562336042989</v>
       </c>
       <c r="AF24" s="4">
-        <f>W24*(B24*SIN(L24)-Z24*COS(L24))</f>
+        <f t="shared" si="0"/>
         <v>14884.319944912539</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14884.319944918001</v>
       </c>
     </row>
@@ -3287,7 +3397,7 @@
         <v>81.290344280312951</v>
       </c>
       <c r="AF30" s="4">
-        <f>W30*(B30*SIN(L30)-Z30*COS(L30))</f>
+        <f t="shared" ref="AF30:AF50" si="6">W30*(B30*SIN(L30)-Z30*COS(L30))</f>
         <v>24001.785848821197</v>
       </c>
       <c r="AG30" s="4">
@@ -3312,7 +3422,7 @@
         <v>72.764970977396402</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31:F50" si="5">RADIANS(E31)</f>
+        <f t="shared" ref="F31:F50" si="7">RADIANS(E31)</f>
         <v>1.2699883236736835</v>
       </c>
       <c r="G31" s="4">
@@ -3331,7 +3441,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:L50" si="6">RADIANS(K31)</f>
+        <f t="shared" ref="L31:L50" si="8">RADIANS(K31)</f>
         <v>0.15525615398376574</v>
       </c>
       <c r="M31" s="4">
@@ -3368,11 +3478,11 @@
         <v>10830.682955218361</v>
       </c>
       <c r="X31" s="15">
-        <f t="shared" ref="X31:X50" si="7">1/(COS(F31-L31)+SIN(F31-L31)*TAN(RADIANS(R31))/$K$1)</f>
+        <f t="shared" ref="X31:X50" si="9">1/(COS(F31-L31)+SIN(F31-L31)*TAN(RADIANS(R31))/$K$1)</f>
         <v>1.4558546229587883</v>
       </c>
       <c r="Y31" s="12">
-        <f t="shared" ref="Y31:Y50" si="8">(-AB31*SIN(F31)-(Q31/$K$1)*G31+(AB31*COS(F31)+O31*G31)*TAN(RADIANS(R31))/$K$1)*X31</f>
+        <f t="shared" ref="Y31:Y50" si="10">(-AB31*SIN(F31)-(Q31/$K$1)*G31+(AB31*COS(F31)+O31*G31)*TAN(RADIANS(R31))/$K$1)*X31</f>
         <v>10830.682955218361</v>
       </c>
       <c r="Z31" s="4">
@@ -3394,11 +3504,11 @@
         <v>70.340407092153939</v>
       </c>
       <c r="AF31" s="4">
-        <f>W31*(B31*SIN(L31)-Z31*COS(L31))</f>
+        <f t="shared" si="6"/>
         <v>-619867.52505481045</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" ref="AG31:AG50" si="9">Y31*(B31*SIN(L31)-Z31*COS(L31))</f>
+        <f t="shared" ref="AG31:AG50" si="11">Y31*(B31*SIN(L31)-Z31*COS(L31))</f>
         <v>-619867.52505481045</v>
       </c>
     </row>
@@ -3419,7 +3529,7 @@
         <v>60.048385306039087</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0480420340965648</v>
       </c>
       <c r="G32" s="4">
@@ -3438,7 +3548,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M32" s="4">
@@ -3475,11 +3585,11 @@
         <v>61020.964892646392</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1382926330523055</v>
       </c>
       <c r="Y32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61020.964892646349</v>
       </c>
       <c r="Z32" s="4">
@@ -3501,11 +3611,11 @@
         <v>54.236596006626122</v>
       </c>
       <c r="AF32" s="4">
-        <f>W32*(B32*SIN(L32)-Z32*COS(L32))</f>
+        <f t="shared" si="6"/>
         <v>-2185051.7938255575</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2185051.7938255561</v>
       </c>
     </row>
@@ -3526,7 +3636,7 @@
         <v>48.950353980985518</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.85434484698491109</v>
       </c>
       <c r="G33" s="4">
@@ -3545,7 +3655,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M33" s="4">
@@ -3582,11 +3692,11 @@
         <v>42888.231943936727</v>
       </c>
       <c r="X33" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0698404961922374</v>
       </c>
       <c r="Y33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42888.231943936727</v>
       </c>
       <c r="Z33" s="4">
@@ -3608,11 +3718,11 @@
         <v>47.938165659627941</v>
       </c>
       <c r="AF33" s="4">
-        <f>W33*(B33*SIN(L33)-Z33*COS(L33))</f>
+        <f t="shared" si="6"/>
         <v>-794141.35725576221</v>
       </c>
       <c r="AG33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-794141.35725576221</v>
       </c>
     </row>
@@ -3633,7 +3743,7 @@
         <v>41.489199988969958</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7241231438259208</v>
       </c>
       <c r="G34" s="4">
@@ -3652,7 +3762,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M34" s="4">
@@ -3689,11 +3799,11 @@
         <v>40158.865608298453</v>
       </c>
       <c r="X34" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0160320648896888</v>
       </c>
       <c r="Y34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40158.865608298438</v>
       </c>
       <c r="Z34" s="4">
@@ -3715,11 +3825,11 @@
         <v>43.249882735063721</v>
       </c>
       <c r="AF34" s="4">
-        <f>W34*(B34*SIN(L34)-Z34*COS(L34))</f>
+        <f t="shared" si="6"/>
         <v>-320204.59552309505</v>
       </c>
       <c r="AG34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-320204.59552309493</v>
       </c>
     </row>
@@ -3740,7 +3850,7 @@
         <v>34.807209799104932</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60750041442681513</v>
       </c>
       <c r="G35" s="4">
@@ -3759,7 +3869,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M35" s="4">
@@ -3796,11 +3906,11 @@
         <v>34920.677729163421</v>
       </c>
       <c r="X35" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98577950278948823</v>
       </c>
       <c r="Y35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34920.677729163421</v>
       </c>
       <c r="Z35" s="4">
@@ -3822,11 +3932,11 @@
         <v>39.878694965945122</v>
       </c>
       <c r="AF35" s="4">
-        <f>W35*(B35*SIN(L35)-Z35*COS(L35))</f>
+        <f t="shared" si="6"/>
         <v>19451.890171352665</v>
       </c>
       <c r="AG35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19451.890171352665</v>
       </c>
     </row>
@@ -3847,7 +3957,7 @@
         <v>28.63022324310317</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49969166117315922</v>
       </c>
       <c r="G36" s="4">
@@ -3866,7 +3976,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M36" s="4">
@@ -3903,11 +4013,11 @@
         <v>28185.443805335439</v>
       </c>
       <c r="X36" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97078398771302477</v>
       </c>
       <c r="Y36" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28185.443805335439</v>
       </c>
       <c r="Z36" s="4">
@@ -3929,11 +4039,11 @@
         <v>37.639650257535983</v>
       </c>
       <c r="AF36" s="4">
-        <f>W36*(B36*SIN(L36)-Z36*COS(L36))</f>
+        <f t="shared" si="6"/>
         <v>213408.407198159</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>213408.407198159</v>
       </c>
     </row>
@@ -3954,7 +4064,7 @@
         <v>22.798593340724128</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.39791051861888943</v>
       </c>
       <c r="G37" s="4">
@@ -3973,7 +4083,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M37" s="4">
@@ -4010,11 +4120,11 @@
         <v>20462.322725744321</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.96719873514679555</v>
       </c>
       <c r="Y37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20462.322725744318</v>
       </c>
       <c r="Z37" s="4">
@@ -4036,11 +4146,11 @@
         <v>36.449508542309758</v>
       </c>
       <c r="AF37" s="4">
-        <f>W37*(B37*SIN(L37)-Z37*COS(L37))</f>
+        <f t="shared" si="6"/>
         <v>273174.41892697301</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>273174.41892697295</v>
       </c>
     </row>
@@ -4061,7 +4171,7 @@
         <v>17.207373528260501</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30032532368865927</v>
       </c>
       <c r="G38" s="4">
@@ -4080,7 +4190,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M38" s="4">
@@ -4117,11 +4227,11 @@
         <v>11907.22927254531</v>
       </c>
       <c r="X38" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97321205263230404</v>
       </c>
       <c r="Y38" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11907.229272545301</v>
       </c>
       <c r="Z38" s="4">
@@ -4143,11 +4253,11 @@
         <v>36.327277541936994</v>
       </c>
       <c r="AF38" s="4">
-        <f>W38*(B38*SIN(L38)-Z38*COS(L38))</f>
+        <f t="shared" si="6"/>
         <v>215093.91115769715</v>
       </c>
       <c r="AG38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>215093.91115769697</v>
       </c>
     </row>
@@ -4168,7 +4278,7 @@
         <v>12.05399136403763</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21038183730941906</v>
       </c>
       <c r="G39" s="4">
@@ -4187,7 +4297,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M39" s="4">
@@ -4224,11 +4334,11 @@
         <v>3004.4202178658402</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98719076459475341</v>
       </c>
       <c r="Y39" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3004.4202178658416</v>
       </c>
       <c r="Z39" s="4">
@@ -4250,11 +4360,11 @@
         <v>37.203108135356921</v>
       </c>
       <c r="AF39" s="4">
-        <f>W39*(B39*SIN(L39)-Z39*COS(L39))</f>
+        <f t="shared" si="6"/>
         <v>65055.296101370652</v>
       </c>
       <c r="AG39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65055.296101370681</v>
       </c>
     </row>
@@ -4275,7 +4385,7 @@
         <v>7.267387142297566</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12683983365019419</v>
       </c>
       <c r="G40" s="4">
@@ -4294,7 +4404,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M40" s="4">
@@ -4331,11 +4441,11 @@
         <v>-3582.9022870204481</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0079407017825086</v>
       </c>
       <c r="Y40" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3582.9022870204481</v>
       </c>
       <c r="Z40" s="4">
@@ -4357,11 +4467,11 @@
         <v>39.023837526282051</v>
       </c>
       <c r="AF40" s="4">
-        <f>W40*(B40*SIN(L40)-Z40*COS(L40))</f>
+        <f t="shared" si="6"/>
         <v>-87104.007972393592</v>
       </c>
       <c r="AG40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-87104.007972393592</v>
       </c>
     </row>
@@ -4382,7 +4492,7 @@
         <v>2.5313870442577771</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.418103856462563E-2</v>
       </c>
       <c r="G41" s="4">
@@ -4401,7 +4511,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M41" s="4">
@@ -4438,11 +4548,11 @@
         <v>-9273.0709800267723</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0366161813299661</v>
       </c>
       <c r="Y41" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9273.0709800267723</v>
       </c>
       <c r="Z41" s="4">
@@ -4464,11 +4574,11 @@
         <v>41.840310328004122</v>
       </c>
       <c r="AF41" s="4">
-        <f>W41*(B41*SIN(L41)-Z41*COS(L41))</f>
+        <f t="shared" si="6"/>
         <v>-243709.60498910703</v>
       </c>
       <c r="AG41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-243709.60498910703</v>
       </c>
     </row>
@@ -4489,7 +4599,7 @@
         <v>-2.6556552129635551</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.6349927263965238E-2</v>
       </c>
       <c r="G42" s="4">
@@ -4508,7 +4618,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M42" s="4">
@@ -4545,11 +4655,11 @@
         <v>-17548.000948391342</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0786688155401936</v>
       </c>
       <c r="Y42" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-17548.000948391338</v>
       </c>
       <c r="Z42" s="4">
@@ -4571,11 +4681,11 @@
         <v>46.73499959460959</v>
       </c>
       <c r="AF42" s="4">
-        <f>W42*(B42*SIN(L42)-Z42*COS(L42))</f>
+        <f t="shared" si="6"/>
         <v>-485573.68751052755</v>
       </c>
       <c r="AG42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-485573.68751052744</v>
       </c>
     </row>
@@ -4596,7 +4706,7 @@
         <v>-8.3372791889056899</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.14551297250440659</v>
       </c>
       <c r="G43" s="4">
@@ -4615,7 +4725,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M43" s="4">
@@ -4652,11 +4762,11 @@
         <v>-22839.970672893978</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1400251377607795</v>
       </c>
       <c r="Y43" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-22839.970672893978</v>
       </c>
       <c r="Z43" s="4">
@@ -4678,11 +4788,11 @@
         <v>53.589647304652381</v>
       </c>
       <c r="AF43" s="4">
-        <f>W43*(B43*SIN(L43)-Z43*COS(L43))</f>
+        <f t="shared" si="6"/>
         <v>-645431.63094259019</v>
       </c>
       <c r="AG43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-645431.63094259019</v>
       </c>
     </row>
@@ -4703,7 +4813,7 @@
         <v>-14.103051563921619</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.2461446843689678</v>
       </c>
       <c r="G44" s="4">
@@ -4722,7 +4832,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M44" s="4">
@@ -4759,11 +4869,11 @@
         <v>-26471.291534421889</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2228950984582221</v>
       </c>
       <c r="Y44" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-26471.291534421896</v>
       </c>
       <c r="Z44" s="4">
@@ -4785,11 +4895,11 @@
         <v>62.976646344856803</v>
       </c>
       <c r="AF44" s="4">
-        <f>W44*(B44*SIN(L44)-Z44*COS(L44))</f>
+        <f t="shared" si="6"/>
         <v>-737248.20031711902</v>
       </c>
       <c r="AG44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-737248.20031711925</v>
       </c>
     </row>
@@ -4810,7 +4920,7 @@
         <v>-19.587598189663659</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.34186808096731158</v>
       </c>
       <c r="G45" s="4">
@@ -4829,7 +4939,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M45" s="4">
@@ -4866,11 +4976,11 @@
         <v>-25302.581921695029</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3271392871096317</v>
       </c>
       <c r="Y45" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-25302.581921695033</v>
       </c>
       <c r="Z45" s="4">
@@ -4892,11 +5002,11 @@
         <v>74.188852158169567</v>
       </c>
       <c r="AF45" s="4">
-        <f>W45*(B45*SIN(L45)-Z45*COS(L45))</f>
+        <f t="shared" si="6"/>
         <v>-671213.1600072867</v>
       </c>
       <c r="AG45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-671213.1600072867</v>
       </c>
     </row>
@@ -4917,7 +5027,7 @@
         <v>-24.818360156472298</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.43316209967621666</v>
       </c>
       <c r="G46" s="4">
@@ -4936,7 +5046,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M46" s="4">
@@ -4973,11 +5083,11 @@
         <v>-28895.436715210741</v>
       </c>
       <c r="X46" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4581411751535451</v>
       </c>
       <c r="Y46" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-28895.436715210741</v>
       </c>
       <c r="Z46" s="4">
@@ -4999,11 +5109,11 @@
         <v>91.42843112700038</v>
       </c>
       <c r="AF46" s="4">
-        <f>W46*(B46*SIN(L46)-Z46*COS(L46))</f>
+        <f t="shared" si="6"/>
         <v>-705823.4624119834</v>
       </c>
       <c r="AG46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-705823.4624119834</v>
       </c>
     </row>
@@ -5024,7 +5134,7 @@
         <v>-30.280799171141162</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.52849964567158314</v>
       </c>
       <c r="G47" s="4">
@@ -5043,7 +5153,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M47" s="4">
@@ -5080,11 +5190,11 @@
         <v>-31670.945126902039</v>
       </c>
       <c r="X47" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6419741026340906</v>
       </c>
       <c r="Y47" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-31670.94512690205</v>
       </c>
       <c r="Z47" s="4">
@@ -5106,11 +5216,11 @@
         <v>121.1631101942303</v>
       </c>
       <c r="AF47" s="4">
-        <f>W47*(B47*SIN(L47)-Z47*COS(L47))</f>
+        <f t="shared" si="6"/>
         <v>-677079.37129874481</v>
       </c>
       <c r="AG47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-677079.37129874504</v>
       </c>
     </row>
@@ -5131,7 +5241,7 @@
         <v>-36.067189115316197</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.62949120200172837</v>
       </c>
       <c r="G48" s="4">
@@ -5150,7 +5260,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M48" s="4">
@@ -5187,11 +5297,11 @@
         <v>-32979.612006003517</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9169186841648418</v>
       </c>
       <c r="Y48" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-32979.612006003517</v>
       </c>
       <c r="Z48" s="4">
@@ -5213,11 +5323,11 @@
         <v>184.64765050585339</v>
       </c>
       <c r="AF48" s="4">
-        <f>W48*(B48*SIN(L48)-Z48*COS(L48))</f>
+        <f t="shared" si="6"/>
         <v>-568167.51310184854</v>
       </c>
       <c r="AG48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-568167.51310184854</v>
       </c>
     </row>
@@ -5238,7 +5348,7 @@
         <v>-42.316761701292187</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.73856682046938582</v>
       </c>
       <c r="G49" s="4">
@@ -5257,7 +5367,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M49" s="4">
@@ -5294,11 +5404,11 @@
         <v>-31418.82957509765</v>
       </c>
       <c r="X49" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3731421904577932</v>
       </c>
       <c r="Y49" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-31418.829575097661</v>
       </c>
       <c r="Z49" s="4">
@@ -5320,11 +5430,11 @@
         <v>403.0887235040509</v>
       </c>
       <c r="AF49" s="4">
-        <f>W49*(B49*SIN(L49)-Z49*COS(L49))</f>
+        <f t="shared" si="6"/>
         <v>-368479.5674351881</v>
       </c>
       <c r="AG49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-368479.56743518822</v>
       </c>
     </row>
@@ -5345,7 +5455,7 @@
         <v>-49.263973919933001</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.8598185475194482</v>
       </c>
       <c r="G50" s="4">
@@ -5364,7 +5474,7 @@
         <v>8.8955223667030001</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15525615398376574</v>
       </c>
       <c r="M50" s="4">
@@ -5401,11 +5511,11 @@
         <v>-23041.79589910862</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2886656646671444</v>
       </c>
       <c r="Y50" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-23041.79589910862</v>
       </c>
       <c r="Z50" s="4">
@@ -5427,11 +5537,11 @@
         <v>39.996242223572402</v>
       </c>
       <c r="AF50" s="4">
-        <f>W50*(B50*SIN(L50)-Z50*COS(L50))</f>
+        <f t="shared" si="6"/>
         <v>-102607.81219193101</v>
       </c>
       <c r="AG50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-102607.81219193101</v>
       </c>
     </row>
@@ -5589,8 +5699,8 @@
         <v>79.171668430372463</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" ref="F56:F76" si="10">RADIANS(E56)</f>
-        <v>1.3818062884072504</v>
+        <f>-F30</f>
+        <v>-1.3818062884072504</v>
       </c>
       <c r="G56" s="4">
         <v>5.2404515254296129</v>
@@ -5605,11 +5715,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L56" s="6">
         <f>RADIANS(K56)</f>
-        <v>0.15525615398376574</v>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M56" s="4">
         <v>78.855630874208998</v>
@@ -5645,12 +5755,12 @@
         <v>-351.08993068094088</v>
       </c>
       <c r="X56" s="15">
-        <f>1/(COS(F56-L56)+SIN(F56-L56)*TAN(RADIANS(R56))/$K$53)</f>
+        <f>1/(COS(F56-L56)+SIN(F56-L56)*(-1)*TAN(RADIANS(R56))/$K$53)</f>
         <v>1.6781256446783024</v>
       </c>
       <c r="Y56" s="12">
-        <f>(-AB56*SIN(F56)-(Q56/$K$53)*G56+(AB56*COS(F56)+O56*G56)*TAN(RADIANS(R56))/$K$53)*X56</f>
-        <v>-351.08993068094094</v>
+        <f>(-AB56*SIN(F56)-(-Q56/$K$53)*G56+(AB56*COS(F56)+O56*G56)*(-1)*TAN(RADIANS(R56))/$K$53)*X56</f>
+        <v>351.08993068094094</v>
       </c>
       <c r="Z56" s="4">
         <v>81.213298775567836</v>
@@ -5671,12 +5781,12 @@
         <v>81.290344280312951</v>
       </c>
       <c r="AF56" s="4">
-        <f>W56*(B56*SIN(L56)-Z56*COS(L56))</f>
-        <v>24001.785848821197</v>
+        <f t="shared" ref="AF56:AF76" si="12">W56*(B56*SIN(L56)-Z56*COS(L56))</f>
+        <v>32338.641509954254</v>
       </c>
       <c r="AG56" s="4">
         <f>Y56*(Z56*COS(L56)-B56*SIN(L56))</f>
-        <v>-24001.7858488212</v>
+        <v>32338.641509954261</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
@@ -5696,8 +5806,8 @@
         <v>72.764970977396402</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="10"/>
-        <v>1.2699883236736835</v>
+        <f t="shared" ref="F57:F76" si="13">-F31</f>
+        <v>-1.2699883236736835</v>
       </c>
       <c r="G57" s="4">
         <v>14.96802931890948</v>
@@ -5712,11 +5822,11 @@
         <v>351.08993068094088</v>
       </c>
       <c r="K57" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" ref="L57:L76" si="11">RADIANS(K57)</f>
-        <v>0.15525615398376574</v>
+        <f>RADIANS(K56)</f>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M57" s="4">
         <v>78.635924832817011</v>
@@ -5752,12 +5862,12 @@
         <v>10830.682955218361</v>
       </c>
       <c r="X57" s="15">
-        <f t="shared" ref="X57:X76" si="12">1/(COS(F57-L57)+SIN(F57-L57)*TAN(RADIANS(R57))/$K$53)</f>
+        <f t="shared" ref="X57:X76" si="14">1/(COS(F57-L57)+SIN(F57-L57)*(-1)*TAN(RADIANS(R57))/$K$53)</f>
         <v>1.4558546229587883</v>
       </c>
       <c r="Y57" s="12">
-        <f t="shared" ref="Y57:Y76" si="13">(-AB57*SIN(F57)-(Q57/$K$53)*G57+(AB57*COS(F57)+O57*G57)*TAN(RADIANS(R57))/$K$53)*X57</f>
-        <v>10830.682955218361</v>
+        <f t="shared" ref="Y57:Y76" si="15">(-AB57*SIN(F57)-(-Q57/$K$53)*G57+(AB57*COS(F57)+O57*G57)*(-1)*TAN(RADIANS(R57))/$K$53)*X57</f>
+        <v>-10830.682955218361</v>
       </c>
       <c r="Z57" s="4">
         <v>70.370797502562368</v>
@@ -5778,12 +5888,12 @@
         <v>70.340407092153939</v>
       </c>
       <c r="AF57" s="4">
-        <f>W57*(B57*SIN(L57)-Z57*COS(L57))</f>
-        <v>-619867.52505481045</v>
+        <f t="shared" si="12"/>
+        <v>-886125.3855436038</v>
       </c>
       <c r="AG57" s="4">
-        <f t="shared" ref="AG57:AG76" si="14">Y57*(Z57*COS(L57)-B57*SIN(L57))</f>
-        <v>619867.52505481045</v>
+        <f t="shared" ref="AG57:AG76" si="16">Y57*(Z57*COS(L57)-B57*SIN(L57))</f>
+        <v>-886125.3855436038</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
@@ -5803,8 +5913,8 @@
         <v>60.048385306039087</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="10"/>
-        <v>1.0480420340965648</v>
+        <f t="shared" si="13"/>
+        <v>-1.0480420340965648</v>
       </c>
       <c r="G58" s="4">
         <v>26.629168069492351</v>
@@ -5819,11 +5929,11 @@
         <v>-10479.59302453742</v>
       </c>
       <c r="K58" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" ref="L57:L76" si="17">RADIANS(K58)</f>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M58" s="4">
         <v>77.91714056524853</v>
@@ -5859,12 +5969,12 @@
         <v>61020.964892646392</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1382926330523055</v>
       </c>
       <c r="Y58" s="12">
-        <f t="shared" si="13"/>
-        <v>61020.964892646349</v>
+        <f t="shared" si="15"/>
+        <v>-61020.964892646349</v>
       </c>
       <c r="Z58" s="4">
         <v>50.073152184533818</v>
@@ -5885,12 +5995,12 @@
         <v>54.236596006626122</v>
       </c>
       <c r="AF58" s="4">
-        <f>W58*(B58*SIN(L58)-Z58*COS(L58))</f>
-        <v>-2185051.7938255575</v>
+        <f t="shared" si="12"/>
+        <v>-3852468.6455676774</v>
       </c>
       <c r="AG58" s="4">
-        <f t="shared" si="14"/>
-        <v>2185051.7938255561</v>
+        <f t="shared" si="16"/>
+        <v>-3852468.6455676747</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
@@ -5910,8 +6020,8 @@
         <v>48.950353980985518</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.85434484698491109</v>
+        <f t="shared" si="13"/>
+        <v>-0.85434484698491109</v>
       </c>
       <c r="G59" s="4">
         <v>13.95769645826263</v>
@@ -5926,11 +6036,11 @@
         <v>-71500.557917183804</v>
       </c>
       <c r="K59" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M59" s="4">
         <v>77.006547275861664</v>
@@ -5966,12 +6076,12 @@
         <v>42888.231943936727</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0698404961922374</v>
       </c>
       <c r="Y59" s="12">
-        <f t="shared" si="13"/>
-        <v>42888.231943936727</v>
+        <f t="shared" si="15"/>
+        <v>-42888.231943936727</v>
       </c>
       <c r="Z59" s="4">
         <v>34.328727171860677</v>
@@ -5992,12 +6102,12 @@
         <v>47.938165659627941</v>
       </c>
       <c r="AF59" s="4">
-        <f>W59*(B59*SIN(L59)-Z59*COS(L59))</f>
-        <v>-794141.35725576221</v>
+        <f t="shared" si="12"/>
+        <v>-2115037.7211255529</v>
       </c>
       <c r="AG59" s="4">
-        <f t="shared" si="14"/>
-        <v>794141.35725576221</v>
+        <f t="shared" si="16"/>
+        <v>-2115037.7211255529</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
@@ -6017,8 +6127,8 @@
         <v>41.489199988969958</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.7241231438259208</v>
+        <f t="shared" si="13"/>
+        <v>-0.7241231438259208</v>
       </c>
       <c r="G60" s="4">
         <v>12.23659619144324</v>
@@ -6033,11 +6143,11 @@
         <v>-114388.7898611205</v>
       </c>
       <c r="K60" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M60" s="4">
         <v>76.263342120053892</v>
@@ -6073,12 +6183,12 @@
         <v>40158.865608298453</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0160320648896888</v>
       </c>
       <c r="Y60" s="12">
-        <f t="shared" si="13"/>
-        <v>40158.865608298438</v>
+        <f t="shared" si="15"/>
+        <v>-40158.865608298438</v>
       </c>
       <c r="Z60" s="4">
         <v>25.09193914530816</v>
@@ -6099,12 +6209,12 @@
         <v>43.249882735063721</v>
       </c>
       <c r="AF60" s="4">
-        <f>W60*(B60*SIN(L60)-Z60*COS(L60))</f>
-        <v>-320204.59552309505</v>
+        <f t="shared" si="12"/>
+        <v>-1670882.573641937</v>
       </c>
       <c r="AG60" s="4">
-        <f t="shared" si="14"/>
-        <v>320204.59552309493</v>
+        <f t="shared" si="16"/>
+        <v>-1670882.5736419363</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
@@ -6124,8 +6234,8 @@
         <v>34.807209799104932</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="10"/>
-        <v>0.60750041442681513</v>
+        <f t="shared" si="13"/>
+        <v>-0.60750041442681513</v>
       </c>
       <c r="G61" s="4">
         <v>11.163621196091441</v>
@@ -6140,11 +6250,11 @@
         <v>-154547.655469419</v>
       </c>
       <c r="K61" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M61" s="4">
         <v>74.731790548364756</v>
@@ -6180,12 +6290,12 @@
         <v>34920.677729163421</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.98577950278948823</v>
       </c>
       <c r="Y61" s="12">
-        <f t="shared" si="13"/>
-        <v>34920.677729163421</v>
+        <f t="shared" si="15"/>
+        <v>-34920.677729163421</v>
       </c>
       <c r="Z61" s="4">
         <v>17.892261295658901</v>
@@ -6206,12 +6316,12 @@
         <v>39.878694965945122</v>
       </c>
       <c r="AF61" s="4">
-        <f>W61*(B61*SIN(L61)-Z61*COS(L61))</f>
-        <v>19451.890171352665</v>
+        <f t="shared" si="12"/>
+        <v>-1254041.1861692609</v>
       </c>
       <c r="AG61" s="4">
-        <f t="shared" si="14"/>
-        <v>-19451.890171352665</v>
+        <f t="shared" si="16"/>
+        <v>-1254041.1861692609</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
@@ -6231,8 +6341,8 @@
         <v>28.63022324310317</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="10"/>
-        <v>0.49969166117315922</v>
+        <f t="shared" si="13"/>
+        <v>-0.49969166117315922</v>
       </c>
       <c r="G62" s="4">
         <v>10.44306712961831</v>
@@ -6247,11 +6357,11 @@
         <v>-189468.3331985824</v>
       </c>
       <c r="K62" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M62" s="4">
         <v>72.767605493729931</v>
@@ -6287,12 +6397,12 @@
         <v>28185.443805335439</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97078398771302477</v>
       </c>
       <c r="Y62" s="12">
-        <f t="shared" si="13"/>
-        <v>28185.443805335439</v>
+        <f t="shared" si="15"/>
+        <v>-28185.443805335439</v>
       </c>
       <c r="Z62" s="4">
         <v>12.226965432096851</v>
@@ -6313,12 +6423,12 @@
         <v>37.639650257535983</v>
       </c>
       <c r="AF62" s="4">
-        <f>W62*(B62*SIN(L62)-Z62*COS(L62))</f>
-        <v>213408.407198159</v>
+        <f t="shared" si="12"/>
+        <v>-894363.03160372155</v>
       </c>
       <c r="AG62" s="4">
-        <f t="shared" si="14"/>
-        <v>-213408.407198159</v>
+        <f t="shared" si="16"/>
+        <v>-894363.03160372155</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
@@ -6338,8 +6448,8 @@
         <v>22.798593340724128</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="10"/>
-        <v>0.39791051861888943</v>
+        <f t="shared" si="13"/>
+        <v>-0.39791051861888943</v>
       </c>
       <c r="G63" s="4">
         <v>9.9430184538719768</v>
@@ -6354,11 +6464,11 @@
         <v>-217653.77700391781</v>
       </c>
       <c r="K63" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L63" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M63" s="4">
         <v>70.803420439095092</v>
@@ -6394,12 +6504,12 @@
         <v>20462.322725744321</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96719873514679555</v>
       </c>
       <c r="Y63" s="12">
-        <f t="shared" si="13"/>
-        <v>20462.322725744318</v>
+        <f t="shared" si="15"/>
+        <v>-20462.322725744318</v>
       </c>
       <c r="Z63" s="4">
         <v>7.8127334857784234</v>
@@ -6420,12 +6530,12 @@
         <v>36.449508542309758</v>
       </c>
       <c r="AF63" s="4">
-        <f>W63*(B63*SIN(L63)-Z63*COS(L63))</f>
-        <v>273174.41892697301</v>
+        <f t="shared" si="12"/>
+        <v>-589061.99919378746</v>
       </c>
       <c r="AG63" s="4">
-        <f t="shared" si="14"/>
-        <v>-273174.41892697295</v>
+        <f t="shared" si="16"/>
+        <v>-589061.99919378734</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
@@ -6445,8 +6555,8 @@
         <v>17.207373528260501</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="10"/>
-        <v>0.30032532368865927</v>
+        <f t="shared" si="13"/>
+        <v>-0.30032532368865927</v>
       </c>
       <c r="G64" s="4">
         <v>9.5956974728459272</v>
@@ -6461,11 +6571,11 @@
         <v>-238116.09972966209</v>
       </c>
       <c r="K64" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M64" s="4">
         <v>68.374929538244373</v>
@@ -6501,12 +6611,12 @@
         <v>11907.22927254531</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97321205263230404</v>
       </c>
       <c r="Y64" s="12">
-        <f t="shared" si="13"/>
-        <v>11907.229272545301</v>
+        <f t="shared" si="15"/>
+        <v>-11907.229272545301</v>
       </c>
       <c r="Z64" s="4">
         <v>4.475970115066076</v>
@@ -6527,12 +6637,12 @@
         <v>36.327277541936994</v>
       </c>
       <c r="AF64" s="4">
-        <f>W64*(B64*SIN(L64)-Z64*COS(L64))</f>
-        <v>215093.91115769715</v>
+        <f t="shared" si="12"/>
+        <v>-320404.61267673294</v>
       </c>
       <c r="AG64" s="4">
-        <f t="shared" si="14"/>
-        <v>-215093.91115769697</v>
+        <f t="shared" si="16"/>
+        <v>-320404.61267673271</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
@@ -6552,8 +6662,8 @@
         <v>12.05399136403763</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="10"/>
-        <v>0.21038183730941906</v>
+        <f t="shared" si="13"/>
+        <v>-0.21038183730941906</v>
       </c>
       <c r="G65" s="4">
         <v>8.4189609347782426</v>
@@ -6568,11 +6678,11 @@
         <v>-250023.32900220749</v>
       </c>
       <c r="K65" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M65" s="4">
         <v>65.765000000000001</v>
@@ -6608,12 +6718,12 @@
         <v>3004.4202178658402</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.98719076459475341</v>
       </c>
       <c r="Y65" s="12">
-        <f t="shared" si="13"/>
-        <v>3004.4202178658416</v>
+        <f t="shared" si="15"/>
+        <v>-3004.4202178658416</v>
       </c>
       <c r="Z65" s="4">
         <v>2.20487543395177</v>
@@ -6634,12 +6744,12 @@
         <v>37.203108135356921</v>
       </c>
       <c r="AF65" s="4">
-        <f>W65*(B65*SIN(L65)-Z65*COS(L65))</f>
-        <v>65055.296101370652</v>
+        <f t="shared" si="12"/>
+        <v>-78144.68424490132</v>
       </c>
       <c r="AG65" s="4">
-        <f t="shared" si="14"/>
-        <v>-65055.296101370681</v>
+        <f t="shared" si="16"/>
+        <v>-78144.684244901364</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
@@ -6659,8 +6769,8 @@
         <v>7.267387142297566</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="10"/>
-        <v>0.12683983365019419</v>
+        <f t="shared" si="13"/>
+        <v>-0.12683983365019419</v>
       </c>
       <c r="G66" s="4">
         <v>8.3000105777110278</v>
@@ -6675,11 +6785,11 @@
         <v>-253027.74922007331</v>
       </c>
       <c r="K66" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M66" s="4">
         <v>63.295000000000002</v>
@@ -6715,12 +6825,12 @@
         <v>-3582.9022870204481</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0079407017825086</v>
       </c>
       <c r="Y66" s="12">
-        <f t="shared" si="13"/>
-        <v>-3582.9022870204481</v>
+        <f t="shared" si="15"/>
+        <v>3582.9022870204481</v>
       </c>
       <c r="Z66" s="4">
         <v>0.80333926991292515</v>
@@ -6741,12 +6851,12 @@
         <v>39.023837526282051</v>
       </c>
       <c r="AF66" s="4">
-        <f>W66*(B66*SIN(L66)-Z66*COS(L66))</f>
-        <v>-87104.007972393592</v>
+        <f t="shared" si="12"/>
+        <v>92791.339867712915</v>
       </c>
       <c r="AG66" s="4">
-        <f t="shared" si="14"/>
-        <v>87104.007972393592</v>
+        <f t="shared" si="16"/>
+        <v>92791.339867712915</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
@@ -6766,8 +6876,8 @@
         <v>2.5313870442577771</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="10"/>
-        <v>4.418103856462563E-2</v>
+        <f t="shared" si="13"/>
+        <v>-4.418103856462563E-2</v>
       </c>
       <c r="G67" s="4">
         <v>8.2413754598427342</v>
@@ -6782,11 +6892,11 @@
         <v>-249444.8469330529</v>
       </c>
       <c r="K67" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M67" s="4">
         <v>60.730769230769241</v>
@@ -6822,12 +6932,12 @@
         <v>-9273.0709800267723</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0366161813299661</v>
       </c>
       <c r="Y67" s="12">
-        <f t="shared" si="13"/>
-        <v>-9273.0709800267723</v>
+        <f t="shared" si="15"/>
+        <v>9273.0709800267723</v>
       </c>
       <c r="Z67" s="4">
         <v>9.7582333781559782E-2</v>
@@ -6848,12 +6958,12 @@
         <v>41.840310328004122</v>
       </c>
       <c r="AF67" s="4">
-        <f>W67*(B67*SIN(L67)-Z67*COS(L67))</f>
-        <v>-243709.60498910703</v>
+        <f t="shared" si="12"/>
+        <v>245497.612736162</v>
       </c>
       <c r="AG67" s="4">
-        <f t="shared" si="14"/>
-        <v>243709.60498910703</v>
+        <f t="shared" si="16"/>
+        <v>245497.612736162</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
@@ -6873,8 +6983,8 @@
         <v>-2.6556552129635551</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="10"/>
-        <v>-4.6349927263965238E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.6349927263965238E-2</v>
       </c>
       <c r="G68" s="4">
         <v>9.8772745196230733</v>
@@ -6889,11 +6999,11 @@
         <v>-240171.77595302611</v>
       </c>
       <c r="K68" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M68" s="4">
         <v>56.553846153846159</v>
@@ -6929,12 +7039,12 @@
         <v>-17548.000948391342</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0786688155401936</v>
       </c>
       <c r="Y68" s="12">
-        <f t="shared" si="13"/>
-        <v>-17548.000948391338</v>
+        <f t="shared" si="15"/>
+        <v>17548.000948391338</v>
       </c>
       <c r="Z68" s="4">
         <v>0.107396558993301</v>
@@ -6955,12 +7065,12 @@
         <v>46.73499959460959</v>
       </c>
       <c r="AF68" s="4">
-        <f>W68*(B68*SIN(L68)-Z68*COS(L68))</f>
-        <v>-485573.68751052755</v>
+        <f t="shared" si="12"/>
+        <v>489297.54135720647</v>
       </c>
       <c r="AG68" s="4">
-        <f t="shared" si="14"/>
-        <v>485573.68751052744</v>
+        <f t="shared" si="16"/>
+        <v>489297.54135720636</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
@@ -6980,8 +7090,8 @@
         <v>-8.3372791889056899</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.14551297250440659</v>
+        <f t="shared" si="13"/>
+        <v>0.14551297250440659</v>
       </c>
       <c r="G69" s="4">
         <v>9.9720547815337195</v>
@@ -6996,11 +7106,11 @@
         <v>-222623.77500463481</v>
       </c>
       <c r="K69" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M69" s="4">
         <v>52</v>
@@ -7036,12 +7146,12 @@
         <v>-22839.970672893978</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1400251377607795</v>
       </c>
       <c r="Y69" s="12">
-        <f t="shared" si="13"/>
-        <v>-22839.970672893978</v>
+        <f t="shared" si="15"/>
+        <v>22839.970672893978</v>
       </c>
       <c r="Z69" s="4">
         <v>1.0568344957571161</v>
@@ -7062,12 +7172,12 @@
         <v>53.589647304652381</v>
       </c>
       <c r="AF69" s="4">
-        <f>W69*(B69*SIN(L69)-Z69*COS(L69))</f>
-        <v>-645431.63094259019</v>
+        <f t="shared" si="12"/>
+        <v>693127.10108047095</v>
       </c>
       <c r="AG69" s="4">
-        <f t="shared" si="14"/>
-        <v>645431.63094259019</v>
+        <f t="shared" si="16"/>
+        <v>693127.10108047095</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
@@ -7087,8 +7197,8 @@
         <v>-14.103051563921619</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.2461446843689678</v>
+        <f t="shared" si="13"/>
+        <v>0.2461446843689678</v>
       </c>
       <c r="G70" s="4">
         <v>10.17329969590835</v>
@@ -7103,11 +7213,11 @@
         <v>-199783.8043317408</v>
       </c>
       <c r="K70" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M70" s="4">
         <v>44</v>
@@ -7143,12 +7253,12 @@
         <v>-26471.291534421889</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2228950984582221</v>
       </c>
       <c r="Y70" s="12">
-        <f t="shared" si="13"/>
-        <v>-26471.291534421896</v>
+        <f t="shared" si="15"/>
+        <v>26471.291534421896</v>
       </c>
       <c r="Z70" s="4">
         <v>3.0140960986827001</v>
@@ -7169,12 +7279,12 @@
         <v>62.976646344856803</v>
       </c>
       <c r="AF70" s="4">
-        <f>W70*(B70*SIN(L70)-Z70*COS(L70))</f>
-        <v>-737248.20031711902</v>
+        <f t="shared" si="12"/>
+        <v>894902.86947439215</v>
       </c>
       <c r="AG70" s="4">
-        <f t="shared" si="14"/>
-        <v>737248.20031711925</v>
+        <f t="shared" si="16"/>
+        <v>894902.86947439238</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
@@ -7194,8 +7304,8 @@
         <v>-19.587598189663659</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.34186808096731158</v>
+        <f t="shared" si="13"/>
+        <v>0.34186808096731158</v>
       </c>
       <c r="G71" s="4">
         <v>8.9685392631696299</v>
@@ -7210,11 +7320,11 @@
         <v>-173312.51279731889</v>
       </c>
       <c r="K71" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M71" s="4">
         <v>40</v>
@@ -7250,12 +7360,12 @@
         <v>-25302.581921695029</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3271392871096317</v>
       </c>
       <c r="Y71" s="12">
-        <f t="shared" si="13"/>
-        <v>-25302.581921695033</v>
+        <f t="shared" si="15"/>
+        <v>25302.581921695033</v>
       </c>
       <c r="Z71" s="4">
         <v>5.7869959976478782</v>
@@ -7276,12 +7386,12 @@
         <v>74.188852158169567</v>
       </c>
       <c r="AF71" s="4">
-        <f>W71*(B71*SIN(L71)-Z71*COS(L71))</f>
-        <v>-671213.1600072867</v>
+        <f t="shared" si="12"/>
+        <v>960542.60452804749</v>
       </c>
       <c r="AG71" s="4">
-        <f t="shared" si="14"/>
-        <v>671213.1600072867</v>
+        <f t="shared" si="16"/>
+        <v>960542.60452804773</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
@@ -7301,8 +7411,8 @@
         <v>-24.818360156472298</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.43316209967621666</v>
+        <f t="shared" si="13"/>
+        <v>0.43316209967621666</v>
       </c>
       <c r="G72" s="4">
         <v>9.3093100082886018</v>
@@ -7317,11 +7427,11 @@
         <v>-148009.93087562389</v>
       </c>
       <c r="K72" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L72" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M72" s="4">
         <v>40</v>
@@ -7357,12 +7467,12 @@
         <v>-28895.436715210741</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4581411751535451</v>
       </c>
       <c r="Y72" s="12">
-        <f t="shared" si="13"/>
-        <v>-28895.436715210741</v>
+        <f t="shared" si="15"/>
+        <v>28895.436715210741</v>
       </c>
       <c r="Z72" s="4">
         <v>9.2356979471149288</v>
@@ -7383,12 +7493,12 @@
         <v>91.42843112700038</v>
       </c>
       <c r="AF72" s="4">
-        <f>W72*(B72*SIN(L72)-Z72*COS(L72))</f>
-        <v>-705823.4624119834</v>
+        <f t="shared" si="12"/>
+        <v>1233142.6752740033</v>
       </c>
       <c r="AG72" s="4">
-        <f t="shared" si="14"/>
-        <v>705823.4624119834</v>
+        <f t="shared" si="16"/>
+        <v>1233142.6752740033</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
@@ -7408,8 +7518,8 @@
         <v>-30.280799171141162</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.52849964567158314</v>
+        <f t="shared" si="13"/>
+        <v>0.52849964567158314</v>
       </c>
       <c r="G73" s="4">
         <v>9.7844798962009047</v>
@@ -7424,11 +7534,11 @@
         <v>-119114.4941604131</v>
       </c>
       <c r="K73" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M73" s="4">
         <v>40</v>
@@ -7464,12 +7574,12 @@
         <v>-31670.945126902039</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6419741026340906</v>
       </c>
       <c r="Y73" s="12">
-        <f t="shared" si="13"/>
-        <v>-31670.94512690205</v>
+        <f t="shared" si="15"/>
+        <v>31670.94512690205</v>
       </c>
       <c r="Z73" s="4">
         <v>13.64354217495692</v>
@@ -7490,12 +7600,12 @@
         <v>121.1631101942303</v>
       </c>
       <c r="AF73" s="4">
-        <f>W73*(B73*SIN(L73)-Z73*COS(L73))</f>
-        <v>-677079.37129874481</v>
+        <f t="shared" si="12"/>
+        <v>1530892.3912144473</v>
       </c>
       <c r="AG73" s="4">
-        <f t="shared" si="14"/>
-        <v>677079.37129874504</v>
+        <f t="shared" si="16"/>
+        <v>1530892.391214448</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
@@ -7515,8 +7625,8 @@
         <v>-36.067189115316197</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.62949120200172837</v>
+        <f t="shared" si="13"/>
+        <v>0.62949120200172837</v>
       </c>
       <c r="G74" s="4">
         <v>10.4531069590765</v>
@@ -7531,11 +7641,11 @@
         <v>-87443.54903351111</v>
       </c>
       <c r="K74" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M74" s="4">
         <v>40</v>
@@ -7571,12 +7681,12 @@
         <v>-32979.612006003517</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9169186841648418</v>
       </c>
       <c r="Y74" s="12">
-        <f t="shared" si="13"/>
-        <v>-32979.612006003517</v>
+        <f t="shared" si="15"/>
+        <v>32979.612006003517</v>
       </c>
       <c r="Z74" s="4">
         <v>19.167284061646939</v>
@@ -7597,12 +7707,12 @@
         <v>184.64765050585339</v>
       </c>
       <c r="AF74" s="4">
-        <f>W74*(B74*SIN(L74)-Z74*COS(L74))</f>
-        <v>-568167.51310184854</v>
+        <f t="shared" si="12"/>
+        <v>1817220.1277089114</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="14"/>
-        <v>568167.51310184854</v>
+        <f t="shared" si="16"/>
+        <v>1817220.1277089114</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
@@ -7622,8 +7732,8 @@
         <v>-42.316761701292187</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.73856682046938582</v>
+        <f t="shared" si="13"/>
+        <v>0.73856682046938582</v>
       </c>
       <c r="G75" s="4">
         <v>11.42702154365921</v>
@@ -7638,11 +7748,11 @@
         <v>-54463.937027507593</v>
       </c>
       <c r="K75" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L75" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M75" s="4">
         <v>40</v>
@@ -7678,12 +7788,12 @@
         <v>-31418.82957509765</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3731421904577932</v>
       </c>
       <c r="Y75" s="12">
-        <f t="shared" si="13"/>
-        <v>-31418.829575097661</v>
+        <f t="shared" si="15"/>
+        <v>31418.829575097661</v>
       </c>
       <c r="Z75" s="4">
         <v>26.05658243769463</v>
@@ -7704,12 +7814,12 @@
         <v>403.0887235040509</v>
       </c>
       <c r="AF75" s="4">
-        <f>W75*(B75*SIN(L75)-Z75*COS(L75))</f>
-        <v>-368479.5674351881</v>
+        <f t="shared" si="12"/>
+        <v>1986120.2756626664</v>
       </c>
       <c r="AG75" s="4">
-        <f t="shared" si="14"/>
-        <v>368479.56743518822</v>
+        <f t="shared" si="16"/>
+        <v>1986120.2756626671</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
@@ -7729,8 +7839,8 @@
         <v>-49.263973919933001</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.8598185475194482</v>
+        <f t="shared" si="13"/>
+        <v>0.8598185475194482</v>
       </c>
       <c r="G76" s="4">
         <v>12.947983979669219</v>
@@ -7745,11 +7855,11 @@
         <v>-23045.107452409931</v>
       </c>
       <c r="K76" s="11">
-        <v>8.8955223667030001</v>
+        <v>-8.8955223667030001</v>
       </c>
       <c r="L76" s="6">
-        <f t="shared" si="11"/>
-        <v>0.15525615398376574</v>
+        <f t="shared" si="17"/>
+        <v>-0.15525615398376574</v>
       </c>
       <c r="M76" s="4">
         <v>40</v>
@@ -7785,12 +7895,12 @@
         <v>-23041.79589910862</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.2886656646671444</v>
       </c>
       <c r="Y76" s="12">
-        <f t="shared" si="13"/>
-        <v>-23041.79589910862</v>
+        <f t="shared" si="15"/>
+        <v>23041.79589910862</v>
       </c>
       <c r="Z76" s="4">
         <v>34.742503016455032</v>
@@ -7811,12 +7921,12 @@
         <v>39.996242223572402</v>
       </c>
       <c r="AF76" s="4">
-        <f>W76*(B76*SIN(L76)-Z76*COS(L76))</f>
-        <v>-102607.81219193101</v>
+        <f t="shared" si="12"/>
+        <v>1684409.5228681925</v>
       </c>
       <c r="AG76" s="4">
-        <f t="shared" si="14"/>
-        <v>102607.81219193101</v>
+        <f t="shared" si="16"/>
+        <v>1684409.5228681925</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
@@ -7830,18 +7940,18 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4">
         <f>SUM(Y56:Y76)</f>
-        <v>3.3115533011805383</v>
+        <v>-3.3115533011805383</v>
       </c>
       <c r="AE78" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AF78" s="3">
         <f>SUM(AF56:AF76)</f>
-        <v>-8401517.5804335736</v>
+        <v>-247.13648500805721</v>
       </c>
       <c r="AG78" s="3">
         <f>SUM(AG56:AG76)</f>
-        <v>8401517.5804335717</v>
+        <v>-247.13648499990813</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="31" x14ac:dyDescent="0.35">
@@ -8055,7 +8165,7 @@
         <v>81.290344280312951</v>
       </c>
       <c r="AF82" s="4">
-        <f>W82*(B82*SIN(L82)-Z82*COS(L82))</f>
+        <f t="shared" ref="AF82:AF102" si="18">W82*(B82*SIN(L82)-Z82*COS(L82))</f>
         <v>33679.350030576992</v>
       </c>
       <c r="AG82" s="4">
@@ -8080,7 +8190,7 @@
         <v>72.764970977396402</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" ref="F83:F102" si="15">RADIANS(E83)</f>
+        <f t="shared" ref="F83:F102" si="19">RADIANS(E83)</f>
         <v>1.2699883236736835</v>
       </c>
       <c r="G83" s="4">
@@ -8099,7 +8209,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" ref="L83:L102" si="16">RADIANS(K83)</f>
+        <f t="shared" ref="L83:L102" si="20">RADIANS(K83)</f>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M83" s="4">
@@ -8136,11 +8246,11 @@
         <v>10830.682955218361</v>
       </c>
       <c r="X83" s="15">
-        <f t="shared" ref="X83:X102" si="17">1/(COS(F83-L83)+SIN(F83-L83)*TAN(RADIANS(R83))/$K$53)</f>
+        <f t="shared" ref="X83:X102" si="21">1/(COS(F83-L83)+SIN(F83-L83)*TAN(RADIANS(R83))/$K$53)</f>
         <v>2.8108108470591717</v>
       </c>
       <c r="Y83" s="12">
-        <f t="shared" ref="Y83:Y102" si="18">(-AB83*SIN(F83)-(Q83/$K$53)*G83+(AB83*COS(F83)+O83*G83)*TAN(RADIANS(R83))/$K$53)*X83</f>
+        <f t="shared" ref="Y83:Y102" si="22">(-AB83*SIN(F83)-(Q83/$K$53)*G83+(AB83*COS(F83)+O83*G83)*TAN(RADIANS(R83))/$K$53)*X83</f>
         <v>20910.742495508373</v>
       </c>
       <c r="Z83" s="4">
@@ -8162,11 +8272,11 @@
         <v>70.340407092153939</v>
       </c>
       <c r="AF83" s="4">
-        <f>W83*(B83*SIN(L83)-Z83*COS(L83))</f>
+        <f t="shared" si="18"/>
         <v>-930689.76945386268</v>
       </c>
       <c r="AG83" s="4">
-        <f t="shared" ref="AG83:AG102" si="19">Y83*(Z83*COS(L83)-B83*SIN(L83))</f>
+        <f t="shared" ref="AG83:AG102" si="23">Y83*(Z83*COS(L83)-B83*SIN(L83))</f>
         <v>1796877.8324248723</v>
       </c>
     </row>
@@ -8187,7 +8297,7 @@
         <v>60.048385306039087</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.0480420340965648</v>
       </c>
       <c r="G84" s="4">
@@ -8206,7 +8316,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L84" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M84" s="4">
@@ -8243,11 +8353,11 @@
         <v>61020.964892646392</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.6464952902227254</v>
       </c>
       <c r="Y84" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>88264.413195030982</v>
       </c>
       <c r="Z84" s="4">
@@ -8269,11 +8379,11 @@
         <v>54.236596006626122</v>
       </c>
       <c r="AF84" s="4">
-        <f>W84*(B84*SIN(L84)-Z84*COS(L84))</f>
+        <f t="shared" si="18"/>
         <v>-4151741.2508686068</v>
       </c>
       <c r="AG84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6005329.5763220936</v>
       </c>
     </row>
@@ -8294,7 +8404,7 @@
         <v>48.950353980985518</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.85434484698491109</v>
       </c>
       <c r="G85" s="4">
@@ -8313,7 +8423,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M85" s="4">
@@ -8350,11 +8460,11 @@
         <v>42888.231943936727</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.410996207667774</v>
       </c>
       <c r="Y85" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>56564.630748093092</v>
       </c>
       <c r="Z85" s="4">
@@ -8376,11 +8486,11 @@
         <v>47.938165659627941</v>
       </c>
       <c r="AF85" s="4">
-        <f>W85*(B85*SIN(L85)-Z85*COS(L85))</f>
+        <f t="shared" si="18"/>
         <v>-2363263.9198579383</v>
       </c>
       <c r="AG85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3116872.5062342845</v>
       </c>
     </row>
@@ -8401,7 +8511,7 @@
         <v>41.489199988969958</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.7241231438259208</v>
       </c>
       <c r="G86" s="4">
@@ -8420,7 +8530,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M86" s="4">
@@ -8457,11 +8567,11 @@
         <v>40158.865608298453</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.2492332146216234</v>
       </c>
       <c r="Y86" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>49376.18655259582</v>
       </c>
       <c r="Z86" s="4">
@@ -8483,11 +8593,11 @@
         <v>43.249882735063721</v>
       </c>
       <c r="AF86" s="4">
-        <f>W86*(B86*SIN(L86)-Z86*COS(L86))</f>
+        <f t="shared" si="18"/>
         <v>-1930558.298857094</v>
       </c>
       <c r="AG86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2373662.8331287368</v>
       </c>
     </row>
@@ -8508,7 +8618,7 @@
         <v>34.807209799104932</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.60750041442681513</v>
       </c>
       <c r="G87" s="4">
@@ -8527,7 +8637,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L87" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M87" s="4">
@@ -8564,11 +8674,11 @@
         <v>34920.677729163421</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.147822910664194</v>
       </c>
       <c r="Y87" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>40660.973209557858</v>
       </c>
       <c r="Z87" s="4">
@@ -8590,11 +8700,11 @@
         <v>39.878694965945122</v>
       </c>
       <c r="AF87" s="4">
-        <f>W87*(B87*SIN(L87)-Z87*COS(L87))</f>
+        <f t="shared" si="18"/>
         <v>-1502701.8085944206</v>
       </c>
       <c r="AG87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1749717.4154264517</v>
       </c>
     </row>
@@ -8615,7 +8725,7 @@
         <v>28.63022324310317</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.49969166117315922</v>
       </c>
       <c r="G88" s="4">
@@ -8634,7 +8744,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L88" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M88" s="4">
@@ -8671,11 +8781,11 @@
         <v>28185.443805335439</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0798156220009696</v>
       </c>
       <c r="Y88" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>31351.034750512008</v>
       </c>
       <c r="Z88" s="4">
@@ -8697,11 +8807,11 @@
         <v>37.639650257535983</v>
       </c>
       <c r="AF88" s="4">
-        <f>W88*(B88*SIN(L88)-Z88*COS(L88))</f>
+        <f t="shared" si="18"/>
         <v>-1113003.2536222406</v>
       </c>
       <c r="AG88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1238007.9562606879</v>
       </c>
     </row>
@@ -8722,7 +8832,7 @@
         <v>22.798593340724128</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.39791051861888943</v>
       </c>
       <c r="G89" s="4">
@@ -8741,7 +8851,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L89" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M89" s="4">
@@ -8778,11 +8888,11 @@
         <v>20462.322725744321</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0330291313425035</v>
       </c>
       <c r="Y89" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>21855.048711801093</v>
       </c>
       <c r="Z89" s="4">
@@ -8804,11 +8914,11 @@
         <v>36.449508542309758</v>
       </c>
       <c r="AF89" s="4">
-        <f>W89*(B89*SIN(L89)-Z89*COS(L89))</f>
+        <f t="shared" si="18"/>
         <v>-760515.21016441903</v>
       </c>
       <c r="AG89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>812278.11656481575</v>
       </c>
     </row>
@@ -8829,7 +8939,7 @@
         <v>17.207373528260501</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.30032532368865927</v>
       </c>
       <c r="G90" s="4">
@@ -8848,7 +8958,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L90" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M90" s="4">
@@ -8885,11 +8995,11 @@
         <v>11907.22927254531</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0011644956161152</v>
       </c>
       <c r="Y90" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12249.226832517714</v>
       </c>
       <c r="Z90" s="4">
@@ -8911,11 +9021,11 @@
         <v>36.327277541936994</v>
       </c>
       <c r="AF90" s="4">
-        <f>W90*(B90*SIN(L90)-Z90*COS(L90))</f>
+        <f t="shared" si="18"/>
         <v>-427427.63687921205</v>
       </c>
       <c r="AG90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>439704.14600921667</v>
       </c>
     </row>
@@ -8936,7 +9046,7 @@
         <v>12.05399136403763</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21038183730941906</v>
       </c>
       <c r="G91" s="4">
@@ -8955,7 +9065,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L91" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M91" s="4">
@@ -8992,11 +9102,11 @@
         <v>3004.4202178658402</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98152534072580755</v>
       </c>
       <c r="Y91" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2987.1780447974702</v>
       </c>
       <c r="Z91" s="4">
@@ -9018,11 +9128,11 @@
         <v>37.203108135356921</v>
       </c>
       <c r="AF91" s="4">
-        <f>W91*(B91*SIN(L91)-Z91*COS(L91))</f>
+        <f t="shared" si="18"/>
         <v>-106853.85400205833</v>
       </c>
       <c r="AG91" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>106240.62665364349</v>
       </c>
     </row>
@@ -9043,7 +9153,7 @@
         <v>7.267387142297566</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.12683983365019419</v>
       </c>
       <c r="G92" s="4">
@@ -9062,7 +9172,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L92" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M92" s="4">
@@ -9099,11 +9209,11 @@
         <v>-3582.9022870204481</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.97086451838308874</v>
       </c>
       <c r="Y92" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-3451.1084800426693</v>
       </c>
       <c r="Z92" s="4">
@@ -9125,11 +9235,11 @@
         <v>39.023837526282051</v>
       </c>
       <c r="AF92" s="4">
-        <f>W92*(B92*SIN(L92)-Z92*COS(L92))</f>
+        <f t="shared" si="18"/>
         <v>128921.3084130902</v>
       </c>
       <c r="AG92" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-124179.0551571558</v>
       </c>
     </row>
@@ -9150,7 +9260,7 @@
         <v>2.5313870442577771</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4.418103856462563E-2</v>
       </c>
       <c r="G93" s="4">
@@ -9169,7 +9279,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L93" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M93" s="4">
@@ -9206,11 +9316,11 @@
         <v>-9273.0709800267723</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.96711038093039481</v>
       </c>
       <c r="Y93" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-8651.3054391861206</v>
       </c>
       <c r="Z93" s="4">
@@ -9232,11 +9342,11 @@
         <v>41.840310328004122</v>
       </c>
       <c r="AF93" s="4">
-        <f>W93*(B93*SIN(L93)-Z93*COS(L93))</f>
+        <f t="shared" si="18"/>
         <v>343830.79519693233</v>
       </c>
       <c r="AG93" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-320776.71302784764</v>
       </c>
     </row>
@@ -9257,7 +9367,7 @@
         <v>-2.6556552129635551</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.6349927263965238E-2</v>
       </c>
       <c r="G94" s="4">
@@ -9276,7 +9386,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L94" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M94" s="4">
@@ -9313,11 +9423,11 @@
         <v>-17548.000948391342</v>
       </c>
       <c r="X94" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.97060420892617305</v>
       </c>
       <c r="Y94" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-15789.984222561827</v>
       </c>
       <c r="Z94" s="4">
@@ -9339,11 +9449,11 @@
         <v>46.73499959460959</v>
       </c>
       <c r="AF94" s="4">
-        <f>W94*(B94*SIN(L94)-Z94*COS(L94))</f>
+        <f t="shared" si="18"/>
         <v>685250.74673252983</v>
       </c>
       <c r="AG94" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-616600.06237902865</v>
       </c>
     </row>
@@ -9364,7 +9474,7 @@
         <v>-8.3372791889056899</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.14551297250440659</v>
       </c>
       <c r="G95" s="4">
@@ -9383,7 +9493,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M95" s="4">
@@ -9420,11 +9530,11 @@
         <v>-22839.970672893978</v>
       </c>
       <c r="X95" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98374012103233355</v>
       </c>
       <c r="Y95" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-19708.859717128831</v>
       </c>
       <c r="Z95" s="4">
@@ -9446,11 +9556,11 @@
         <v>53.589647304652381</v>
       </c>
       <c r="AF95" s="4">
-        <f>W95*(B95*SIN(L95)-Z95*COS(L95))</f>
+        <f t="shared" si="18"/>
         <v>961929.65583526436</v>
       </c>
       <c r="AG95" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-830059.58790931618</v>
       </c>
     </row>
@@ -9471,7 +9581,7 @@
         <v>-14.103051563921619</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.2461446843689678</v>
       </c>
       <c r="G96" s="4">
@@ -9490,7 +9600,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M96" s="4">
@@ -9527,11 +9637,11 @@
         <v>-26471.291534421889</v>
       </c>
       <c r="X96" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0077009933495116</v>
       </c>
       <c r="Y96" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-21813.111204806064</v>
       </c>
       <c r="Z96" s="4">
@@ -9553,11 +9663,11 @@
         <v>62.976646344856803</v>
       </c>
       <c r="AF96" s="4">
-        <f>W96*(B96*SIN(L96)-Z96*COS(L96))</f>
+        <f t="shared" si="18"/>
         <v>1222071.1340801143</v>
       </c>
       <c r="AG96" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1007022.0228283684</v>
       </c>
     </row>
@@ -9578,7 +9688,7 @@
         <v>-19.587598189663659</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.34186808096731158</v>
       </c>
       <c r="G97" s="4">
@@ -9597,7 +9707,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L97" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M97" s="4">
@@ -9634,11 +9744,11 @@
         <v>-25302.581921695029</v>
       </c>
       <c r="X97" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0416200265242301</v>
       </c>
       <c r="Y97" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-19859.01277160391</v>
       </c>
       <c r="Z97" s="4">
@@ -9660,11 +9770,11 @@
         <v>74.188852158169567</v>
       </c>
       <c r="AF97" s="4">
-        <f>W97*(B97*SIN(L97)-Z97*COS(L97))</f>
+        <f t="shared" si="18"/>
         <v>1286847.9410384621</v>
       </c>
       <c r="AG97" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1009996.9155433541</v>
       </c>
     </row>
@@ -9685,7 +9795,7 @@
         <v>-24.818360156472298</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.43316209967621666</v>
       </c>
       <c r="G98" s="4">
@@ -9704,7 +9814,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L98" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M98" s="4">
@@ -9741,11 +9851,11 @@
         <v>-28895.436715210741</v>
       </c>
       <c r="X98" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0857422960343466</v>
       </c>
       <c r="Y98" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-21515.747815560062</v>
       </c>
       <c r="Z98" s="4">
@@ -9767,11 +9877,11 @@
         <v>91.42843112700038</v>
       </c>
       <c r="AF98" s="4">
-        <f>W98*(B98*SIN(L98)-Z98*COS(L98))</f>
+        <f t="shared" si="18"/>
         <v>1619789.5351916838</v>
       </c>
       <c r="AG98" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1206106.8153062984</v>
       </c>
     </row>
@@ -9792,7 +9902,7 @@
         <v>-30.280799171141162</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.52849964567158314</v>
       </c>
       <c r="G99" s="4">
@@ -9811,7 +9921,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L99" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M99" s="4">
@@ -9848,11 +9958,11 @@
         <v>-31670.945126902039</v>
       </c>
       <c r="X99" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1466516786656944</v>
       </c>
       <c r="Y99" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-22117.000710567325</v>
       </c>
       <c r="Z99" s="4">
@@ -9874,11 +9984,11 @@
         <v>121.1631101942303</v>
       </c>
       <c r="AF99" s="4">
-        <f>W99*(B99*SIN(L99)-Z99*COS(L99))</f>
+        <f t="shared" si="18"/>
         <v>1969673.9951245771</v>
       </c>
       <c r="AG99" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1375496.7202653068</v>
       </c>
     </row>
@@ -9899,7 +10009,7 @@
         <v>-36.067189115316197</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.62949120200172837</v>
       </c>
       <c r="G100" s="4">
@@ -9918,7 +10028,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L100" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M100" s="4">
@@ -9955,11 +10065,11 @@
         <v>-32979.612006003517</v>
       </c>
       <c r="X100" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.2320582003232308</v>
       </c>
       <c r="Y100" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-21196.935347926821</v>
       </c>
       <c r="Z100" s="4">
@@ -9981,11 +10091,11 @@
         <v>184.64765050585339</v>
       </c>
       <c r="AF100" s="4">
-        <f>W100*(B100*SIN(L100)-Z100*COS(L100))</f>
+        <f t="shared" si="18"/>
         <v>2289315.4353632294</v>
       </c>
       <c r="AG100" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1471408.1919936379</v>
       </c>
     </row>
@@ -10006,7 +10116,7 @@
         <v>-42.316761701292187</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.73856682046938582</v>
       </c>
       <c r="G101" s="4">
@@ -10025,7 +10135,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L101" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M101" s="4">
@@ -10062,11 +10172,11 @@
         <v>-31418.82957509765</v>
       </c>
       <c r="X101" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.3566939554845363</v>
       </c>
       <c r="Y101" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-17961.728692165314</v>
       </c>
       <c r="Z101" s="4">
@@ -10088,11 +10198,11 @@
         <v>403.0887235040509</v>
       </c>
       <c r="AF101" s="4">
-        <f>W101*(B101*SIN(L101)-Z101*COS(L101))</f>
+        <f t="shared" si="18"/>
         <v>2449833.3186440016</v>
       </c>
       <c r="AG101" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-1400537.2576127788</v>
       </c>
     </row>
@@ -10113,7 +10223,7 @@
         <v>-49.263973919933001</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-0.8598185475194482</v>
       </c>
       <c r="G102" s="4">
@@ -10132,7 +10242,7 @@
         <v>-12.521387952354001</v>
       </c>
       <c r="L102" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.21853944668812819</v>
       </c>
       <c r="M102" s="4">
@@ -10169,11 +10279,11 @@
         <v>-23041.79589910862</v>
       </c>
       <c r="X102" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.5528956691505722</v>
       </c>
       <c r="Y102" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-10880.250140842074</v>
       </c>
       <c r="Z102" s="4">
@@ -10195,15 +10305,16 @@
         <v>39.996242223572402</v>
       </c>
       <c r="AF102" s="4">
-        <f>W102*(B102*SIN(L102)-Z102*COS(L102))</f>
+        <f t="shared" si="18"/>
         <v>2034236.4424418206</v>
       </c>
       <c r="AG102" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-960558.86599706928</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>